--- a/StateOfPractice/DomainMeasurements/LBM-Peter/Report/LBM_Figures_Updated_01OCT2022.xlsx
+++ b/StateOfPractice/DomainMeasurements/LBM-Peter/Report/LBM_Figures_Updated_01OCT2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
@@ -221,15 +221,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -246,7 +237,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -293,7 +284,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart281.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart291.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -509,11 +500,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="7821811"/>
-        <c:axId val="72420743"/>
+        <c:axId val="67778675"/>
+        <c:axId val="24642724"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7821811"/>
+        <c:axId val="67778675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +517,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -544,17 +535,18 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72420743"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="24642724"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72420743"/>
+        <c:axId val="24642724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.08"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -599,7 +591,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -617,16 +609,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7821811"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="67778675"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -644,7 +634,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart282.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart292.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -860,11 +850,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="50678226"/>
-        <c:axId val="68193490"/>
+        <c:axId val="91711895"/>
+        <c:axId val="89920592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50678226"/>
+        <c:axId val="91711895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +886,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68193490"/>
+        <c:crossAx val="89920592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -904,10 +894,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68193490"/>
+        <c:axId val="89920592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.12"/>
+          <c:max val="0.105"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -951,11 +941,10 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="15840">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -972,16 +961,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50678226"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="91711895"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -999,7 +987,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart283.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart293.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1215,11 +1203,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="98053006"/>
-        <c:axId val="62830611"/>
+        <c:axId val="76009129"/>
+        <c:axId val="97996066"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98053006"/>
+        <c:axId val="76009129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1220,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1250,17 +1238,19 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62830611"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="97996066"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62830611"/>
+        <c:axId val="97996066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.14"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1305,7 +1295,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1323,16 +1313,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98053006"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="76009129"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -1350,7 +1338,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart284.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart294.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1566,11 +1554,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91518642"/>
-        <c:axId val="18785083"/>
+        <c:axId val="23687717"/>
+        <c:axId val="2048124"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91518642"/>
+        <c:axId val="23687717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1571,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1601,17 +1589,18 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18785083"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2048124"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18785083"/>
+        <c:axId val="2048124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.08"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1656,7 +1645,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1674,16 +1663,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91518642"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="23687717"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -1701,7 +1688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart285.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart295.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1917,11 +1904,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="41109713"/>
-        <c:axId val="22283742"/>
+        <c:axId val="42708905"/>
+        <c:axId val="97675952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41109713"/>
+        <c:axId val="42708905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1921,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1952,17 +1939,19 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22283742"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="97675952"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22283742"/>
+        <c:axId val="97675952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.053"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2007,7 +1996,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2025,16 +2014,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41109713"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="42708905"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -2052,7 +2040,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart286.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart296.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2268,11 +2256,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="74153274"/>
-        <c:axId val="1425720"/>
+        <c:axId val="21857119"/>
+        <c:axId val="98981334"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74153274"/>
+        <c:axId val="21857119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2273,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2303,15 +2291,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425720"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="98981334"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1425720"/>
+        <c:axId val="98981334"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,7 +2346,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2376,17 +2364,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74153274"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="21857119"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.02"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -2404,7 +2390,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart287.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart297.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2620,11 +2606,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="6625349"/>
-        <c:axId val="81944948"/>
+        <c:axId val="9352204"/>
+        <c:axId val="13353591"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6625349"/>
+        <c:axId val="9352204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2623,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2655,15 +2641,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81944948"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="13353591"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81944948"/>
+        <c:axId val="13353591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2710,7 +2696,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2728,17 +2714,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6625349"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="9352204"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.02"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -2756,7 +2740,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart288.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart298.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2972,11 +2956,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="58446545"/>
-        <c:axId val="75340851"/>
+        <c:axId val="68095688"/>
+        <c:axId val="88417753"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58446545"/>
+        <c:axId val="68095688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2973,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -3007,15 +2991,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75340851"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="88417753"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75340851"/>
+        <c:axId val="88417753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3046,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -3080,16 +3064,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58446545"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="68095688"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -3107,7 +3089,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart289.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart299.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3323,11 +3305,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="86790053"/>
-        <c:axId val="84776584"/>
+        <c:axId val="66958180"/>
+        <c:axId val="51478324"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86790053"/>
+        <c:axId val="66958180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3340,7 +3322,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -3358,15 +3340,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84776584"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="51478324"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84776584"/>
+        <c:axId val="51478324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,7 +3395,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -3431,16 +3413,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86790053"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="66958180"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -3458,7 +3438,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart290.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart300.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3674,11 +3654,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55892559"/>
-        <c:axId val="30463874"/>
+        <c:axId val="33248602"/>
+        <c:axId val="51891991"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55892559"/>
+        <c:axId val="33248602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3691,7 +3671,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -3709,15 +3689,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30463874"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="51891991"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30463874"/>
+        <c:axId val="51891991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -3765,7 +3745,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -3783,16 +3763,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55892559"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="33248602"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -3821,9 +3799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>783360</xdr:colOff>
+      <xdr:colOff>783000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3831,8 +3809,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2426400" y="630720"/>
-        <a:ext cx="7283880" cy="3362040"/>
+        <a:off x="2428920" y="630720"/>
+        <a:ext cx="7295040" cy="3361680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3856,9 +3834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>793080</xdr:colOff>
+      <xdr:colOff>792720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3866,8 +3844,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2432520" y="608760"/>
-        <a:ext cx="7287480" cy="3369600"/>
+        <a:off x="2435040" y="608760"/>
+        <a:ext cx="7298640" cy="3369240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3891,9 +3869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3901,8 +3879,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2469600" y="382680"/>
-        <a:ext cx="11378160" cy="3359880"/>
+        <a:off x="2473200" y="382680"/>
+        <a:ext cx="11395800" cy="3359520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3926,9 +3904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
+      <xdr:colOff>802800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3936,8 +3914,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2422800" y="379800"/>
-        <a:ext cx="7307280" cy="3359880"/>
+        <a:off x="2425320" y="379800"/>
+        <a:ext cx="7318440" cy="3359520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3961,9 +3939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
+      <xdr:colOff>802800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3971,8 +3949,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2422800" y="504360"/>
-        <a:ext cx="7307280" cy="3369600"/>
+        <a:off x="2425320" y="504360"/>
+        <a:ext cx="7318440" cy="3369240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3996,9 +3974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>793080</xdr:colOff>
+      <xdr:colOff>792720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4006,8 +3984,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2441160" y="350640"/>
-        <a:ext cx="7278840" cy="3359880"/>
+        <a:off x="2444760" y="350640"/>
+        <a:ext cx="7288920" cy="3359520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4031,9 +4009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
+      <xdr:colOff>802800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4041,8 +4019,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2460960" y="542160"/>
-        <a:ext cx="7269120" cy="3379320"/>
+        <a:off x="2464560" y="542160"/>
+        <a:ext cx="7279200" cy="3378960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4066,9 +4044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>783360</xdr:colOff>
+      <xdr:colOff>783000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4076,8 +4054,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2432880" y="513720"/>
-        <a:ext cx="7277400" cy="3360240"/>
+        <a:off x="2435400" y="513720"/>
+        <a:ext cx="7288560" cy="3359880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4101,9 +4079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
+      <xdr:colOff>802800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4111,8 +4089,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2403000" y="465480"/>
-        <a:ext cx="7327080" cy="3359880"/>
+        <a:off x="2405520" y="465480"/>
+        <a:ext cx="7338240" cy="3359520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4136,9 +4114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
+      <xdr:colOff>802800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4146,8 +4124,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2403000" y="426960"/>
-        <a:ext cx="7327080" cy="3350520"/>
+        <a:off x="2405520" y="426960"/>
+        <a:ext cx="7338240" cy="3350160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4167,11 +4145,11 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -4384,11 +4362,11 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -4602,10 +4580,10 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -4818,11 +4796,11 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -5035,11 +5013,11 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -5252,11 +5230,11 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -5470,10 +5448,10 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -5687,10 +5665,10 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -5904,10 +5882,10 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -6121,10 +6099,10 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">

--- a/StateOfPractice/DomainMeasurements/LBM-Peter/Report/LBM_Figures_Updated_01OCT2022.xlsx
+++ b/StateOfPractice/DomainMeasurements/LBM-Peter/Report/LBM_Figures_Updated_01OCT2022.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smiths/Repos/AIMSS/StateOfPractice/DomainMeasurements/LBM-Peter/Report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97D606-D598-6848-B73B-A71F472DAAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView xWindow="19580" yWindow="2280" windowWidth="26620" windowHeight="16860" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Installability" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Correctness &amp; Verifiability" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Reliability" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Robustness" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Usability" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Maintainability" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Reusability" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Understandability" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Visibility &amp; Transparency" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Installability" sheetId="2" r:id="rId2"/>
+    <sheet name="Correctness &amp; Verifiability" sheetId="3" r:id="rId3"/>
+    <sheet name="Reliability" sheetId="4" r:id="rId4"/>
+    <sheet name="Robustness" sheetId="5" r:id="rId5"/>
+    <sheet name="Usability" sheetId="6" r:id="rId6"/>
+    <sheet name="Maintainability" sheetId="7" r:id="rId7"/>
+    <sheet name="Reusability" sheetId="8" r:id="rId8"/>
+    <sheet name="Understandability" sheetId="9" r:id="rId9"/>
+    <sheet name="Visibility &amp; Transparency" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -31,119 +36,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="24">
   <si>
-    <t xml:space="preserve">ESPResSo</t>
+    <t>ESPResSo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ludwig</t>
+    <t>Ludwig</t>
   </si>
   <si>
-    <t xml:space="preserve">Palabos</t>
+    <t>Palabos</t>
   </si>
   <si>
-    <t xml:space="preserve">LUMA</t>
+    <t>LUMA</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenLB</t>
+    <t>OpenLB</t>
   </si>
   <si>
-    <t xml:space="preserve">pyLBM</t>
+    <t>pyLBM</t>
   </si>
   <si>
-    <t xml:space="preserve">Musubi</t>
+    <t>Musubi</t>
   </si>
   <si>
-    <t xml:space="preserve">waLBerla</t>
+    <t>waLBerla</t>
   </si>
   <si>
-    <t xml:space="preserve">DL_MESO (LBE)</t>
+    <t>DL_MESO (LBE)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sailfish</t>
+    <t>Sailfish</t>
   </si>
   <si>
-    <t xml:space="preserve">TCLB</t>
+    <t>TCLB</t>
   </si>
   <si>
-    <t xml:space="preserve">laboetie</t>
+    <t>laboetie</t>
   </si>
   <si>
-    <t xml:space="preserve">lettuce</t>
+    <t>lettuce</t>
   </si>
   <si>
-    <t xml:space="preserve">MechSys</t>
+    <t>MechSys</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPResSo++</t>
+    <t>ESPResSo++</t>
   </si>
   <si>
-    <t xml:space="preserve">LB2D-Prime</t>
+    <t>LB2D-Prime</t>
   </si>
   <si>
-    <t xml:space="preserve">LB3D</t>
+    <t>LB3D</t>
   </si>
   <si>
-    <t xml:space="preserve">SunlightLB</t>
+    <t>SunlightLB</t>
   </si>
   <si>
-    <t xml:space="preserve">HemeLB</t>
+    <t>HemeLB</t>
   </si>
   <si>
-    <t xml:space="preserve">MP-LABS</t>
+    <t>MP-LABS</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMBES</t>
+    <t>LIMBES</t>
   </si>
   <si>
-    <t xml:space="preserve">lbmpy</t>
+    <t>lbmpy</t>
   </si>
   <si>
-    <t xml:space="preserve">LB3D-Prime</t>
+    <t>LB3D-Prime</t>
   </si>
   <si>
-    <t xml:space="preserve">LatBo.jl</t>
+    <t>LatBo.jl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,72 +129,44 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -279,18 +225,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart291.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -308,18 +273,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -328,8 +301,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -426,80 +400,92 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.067</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.061</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.038</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.027</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.024</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.024</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.022</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.013</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66BA-E34B-8936-9D856D84241A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="67778675"/>
         <c:axId val="24642724"/>
       </c:barChart>
@@ -526,13 +512,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="24642724"/>
@@ -557,7 +544,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -565,7 +552,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -600,13 +587,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67778675"/>
@@ -622,25 +610,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart292.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -658,18 +655,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -678,8 +683,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -688,173 +694,185 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Installability!$A$2:$A$25</c:f>
+              <c:f>'Visibility &amp; Transparency'!$A$2:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Ludwig</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ESPResSo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>LUMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Palabos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP-LABS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenLB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lbmpy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pyLBM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TCLB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DL_MESO (LBE)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HemeLB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LatBo.jl</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LB2D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LB3D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>lettuce</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LIMBES</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sailfish</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>waLBerla</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ESPResSo++</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>laboetie</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>LB3D</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>MechSys</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>OpenLB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DL_MESO (LBE)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Palabos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sailfish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LB3D</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LIMBES</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
+                  <c:v>SunlightLB</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Musubi</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>pyLBM</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>laboetie</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LB3D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LUMA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SunlightLB</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TCLB</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Ludwig</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>MP-LABS</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ESPResSo++</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>HemeLB</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>LB2D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>lbmpy</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>lettuce</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>waLBerla</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>LatBo.jl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Installability!$B$2:$B$25</c:f>
+              <c:f>'Visibility &amp; Transparency'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.105</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.105</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.072</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.072</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.072</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.048</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.048</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.048</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.048</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.031</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.031</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.031</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.031</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.031</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.02</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.013</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.013</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.013</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.013</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.013</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.009</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.007</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C49-DD42-B695-D72A20C3CADD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="91711895"/>
-        <c:axId val="89920592"/>
+        <c:axId val="33248602"/>
+        <c:axId val="51891991"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91711895"/>
+        <c:axId val="33248602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,11 +883,10 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="15840">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -877,28 +894,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89920592"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="51891991"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89920592"/>
+        <c:axId val="51891991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.105"/>
-          <c:min val="0"/>
+          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -909,7 +926,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -917,7 +934,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -952,19 +969,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91711895"/>
+        <c:crossAx val="33248602"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.02"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -975,25 +992,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart293.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1011,18 +1037,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1031,8 +1065,394 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Installability!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ESPResSo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MechSys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenLB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DL_MESO (LBE)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Palabos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sailfish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LB3D</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LIMBES</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Musubi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pyLBM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>laboetie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LB3D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LUMA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SunlightLB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TCLB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ludwig</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MP-LABS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ESPResSo++</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>HemeLB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LB2D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>lbmpy</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>lettuce</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>waLBerla</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LatBo.jl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Installability!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B35-FE4D-BD9E-2E6B0F50BDD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="91711895"/>
+        <c:axId val="89920592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91711895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="15840">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89920592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89920592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.105"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>AHP Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91711895"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1126,7 +1546,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.135</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
@@ -1135,31 +1555,31 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.071</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.071</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.03</c:v>
@@ -1171,13 +1591,13 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.01</c:v>
@@ -1195,14 +1615,26 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6ED8-CF46-B079-0DAF94BD4B3A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="76009129"/>
         <c:axId val="97996066"/>
       </c:barChart>
@@ -1229,13 +1661,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97996066"/>
@@ -1249,7 +1682,7 @@
         <c:axId val="97996066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.14"/>
+          <c:max val="0.14000000000000001"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1261,7 +1694,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1269,7 +1702,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1304,13 +1737,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="76009129"/>
@@ -1326,25 +1760,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart294.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1362,18 +1805,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1382,8 +1833,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1477,83 +1929,95 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.077</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.022</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7235-404A-8395-1C86FD0A5B2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="23687717"/>
         <c:axId val="2048124"/>
       </c:barChart>
@@ -1580,13 +2044,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2048124"/>
@@ -1611,7 +2076,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1619,7 +2084,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1654,13 +2119,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="23687717"/>
@@ -1676,25 +2142,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart295.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1712,18 +2187,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1732,8 +2215,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1827,58 +2311,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.04</c:v>
@@ -1893,17 +2377,29 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.004</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.004</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C6E-8349-B02B-7032175A7E15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="42708905"/>
         <c:axId val="97675952"/>
       </c:barChart>
@@ -1930,13 +2426,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97675952"/>
@@ -1950,7 +2447,7 @@
         <c:axId val="97675952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.053"/>
+          <c:max val="5.2999999999999999E-2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1962,7 +2459,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1970,7 +2467,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2005,13 +2502,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="42708905"/>
@@ -2028,25 +2526,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart296.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2064,18 +2571,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2084,8 +2599,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2179,43 +2695,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.089</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.089</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.089</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.089</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.089</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.02</c:v>
@@ -2233,29 +2749,41 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAC7-BF4B-A864-43547BCF7A17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="21857119"/>
         <c:axId val="98981334"/>
       </c:barChart>
@@ -2282,13 +2810,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98981334"/>
@@ -2312,7 +2841,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2320,7 +2849,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2355,13 +2884,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="21857119"/>
@@ -2378,25 +2908,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart297.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2414,18 +2953,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2434,8 +2981,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2529,16 +3077,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.094</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.094</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.094</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.094</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.06</c:v>
@@ -2556,56 +3104,68 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.026</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.026</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.018</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.018</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.018</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80CB-5042-AD2B-987A02D27D6C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="9352204"/>
         <c:axId val="13353591"/>
       </c:barChart>
@@ -2632,13 +3192,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13353591"/>
@@ -2662,7 +3223,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2670,7 +3231,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2705,13 +3266,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="9352204"/>
@@ -2728,25 +3290,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart298.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2764,18 +3335,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2784,8 +3363,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2885,77 +3465,89 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.035</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.035</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.035</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.016</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.016</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.016</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A41-3842-94BE-F618D9EE551E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="68095688"/>
         <c:axId val="88417753"/>
       </c:barChart>
@@ -2982,13 +3574,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88417753"/>
@@ -3012,7 +3605,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3020,7 +3613,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3055,13 +3648,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="68095688"/>
@@ -3077,25 +3671,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart299.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3113,18 +3716,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3133,8 +3744,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3231,80 +3843,92 @@
                   <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.077</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.077</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.077</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.077</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1CA-8F48-9142-5B8406A1E5C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="66958180"/>
         <c:axId val="51478324"/>
       </c:barChart>
@@ -3331,13 +3955,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="51478324"/>
@@ -3361,7 +3986,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3369,7 +3994,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3404,13 +4029,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66958180"/>
@@ -3426,370 +4052,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart300.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Visibility &amp; Transparency'!$A$2:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Ludwig</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ESPResSo</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LUMA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Palabos</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP-LABS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>OpenLB</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>lbmpy</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>pyLBM</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TCLB</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DL_MESO (LBE)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>HemeLB</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LatBo.jl</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LB2D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>LB3D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>lettuce</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>LIMBES</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sailfish</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>waLBerla</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>ESPResSo++</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>laboetie</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>LB3D</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>MechSys</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>SunlightLB</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Musubi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Visibility &amp; Transparency'!$B$2:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.089</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.089</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.062</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.062</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="33248602"/>
-        <c:axId val="51891991"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="33248602"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51891991"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51891991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>AHP Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="33248602"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3803,14 +4085,20 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2428920" y="630720"/>
-        <a:ext cx="7295040" cy="3361680"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3824,7 +4112,7 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3838,14 +4126,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2435040" y="608760"/>
-        <a:ext cx="7298640" cy="3369240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3859,7 +4153,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3873,14 +4167,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2473200" y="382680"/>
-        <a:ext cx="11395800" cy="3359520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3894,7 +4194,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3908,14 +4208,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2425320" y="379800"/>
-        <a:ext cx="7318440" cy="3359520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3929,7 +4235,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3943,14 +4249,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2425320" y="504360"/>
-        <a:ext cx="7318440" cy="3369240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3964,7 +4276,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3978,14 +4290,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2444760" y="350640"/>
-        <a:ext cx="7288920" cy="3359520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3999,7 +4317,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4013,14 +4331,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2464560" y="542160"/>
-        <a:ext cx="7279200" cy="3378960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4034,7 +4358,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4048,14 +4372,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2435400" y="513720"/>
-        <a:ext cx="7288560" cy="3359880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4069,7 +4399,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4083,14 +4413,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2405520" y="465480"/>
-        <a:ext cx="7338240" cy="3359520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4104,7 +4440,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4118,14 +4454,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2405520" y="426960"/>
-        <a:ext cx="7338240" cy="3350160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4138,216 +4480,507 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.027</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.013</v>
+      <c r="B25">
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4356,215 +4989,211 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.192</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="B20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4573,215 +5202,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.105</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.105</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.105</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="B15">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="B16">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.007</v>
+      <c r="B25">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4790,215 +5415,211 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.071</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.071</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="B19">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5007,215 +5628,211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="B21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5224,215 +5841,211 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B10">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="B18">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.004</v>
+      <c r="B25">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5441,215 +6054,211 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="B21">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5658,215 +6267,211 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B11">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B12">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="B13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="B14">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="B22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.007</v>
+      <c r="B25">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5875,215 +6480,211 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="B22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="B23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.007</v>
+      <c r="B25">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -6092,215 +6693,211 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.114</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B8">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B11">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="B16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="B17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="B18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="B20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="B23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.011</v>
+      <c r="B25">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/StateOfPractice/DomainMeasurements/LBM-Peter/Report/LBM_Figures_Updated_01OCT2022.xlsx
+++ b/StateOfPractice/DomainMeasurements/LBM-Peter/Report/LBM_Figures_Updated_01OCT2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smiths/Repos/AIMSS/StateOfPractice/DomainMeasurements/LBM-Peter/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97D606-D598-6848-B73B-A71F472DAAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7180F351-61BF-7440-8B48-3A481A84982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19580" yWindow="2280" windowWidth="26620" windowHeight="16860" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19580" yWindow="2280" windowWidth="26620" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -552,7 +552,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -576,7 +576,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -883,7 +883,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -958,7 +958,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1650,7 +1650,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1726,7 +1726,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2033,7 +2033,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2084,7 +2084,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2108,7 +2108,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2415,7 +2415,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2467,7 +2467,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2491,7 +2491,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2799,7 +2799,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2849,7 +2849,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2873,7 +2873,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3181,7 +3181,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3231,7 +3231,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3255,7 +3255,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3563,7 +3563,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3613,7 +3613,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3637,7 +3637,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3944,7 +3944,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3994,7 +3994,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4018,7 +4018,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15875">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -4080,8 +4080,8 @@
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>783000</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -4121,8 +4121,8 @@
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
@@ -4197,16 +4197,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>799560</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21685</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>23690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>13610</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4244,8 +4244,8 @@
       <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
@@ -4280,13 +4280,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>6479</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>26280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
@@ -4321,13 +4321,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:colOff>26279</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>55080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>857249</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
@@ -4367,8 +4367,8 @@
       <xdr:rowOff>26640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>783000</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
@@ -4408,8 +4408,8 @@
       <xdr:rowOff>141120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
@@ -4449,8 +4449,8 @@
       <xdr:rowOff>102600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
@@ -4779,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4993,7 +4993,7 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5205,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5418,8 +5418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5844,7 +5844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -6058,7 +6058,7 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6271,7 +6271,7 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6484,7 +6484,7 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6697,7 +6697,7 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
